--- a/data/trans_dic/VUL_OTRO-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,88%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,78%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>3,06%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,97%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,22</t>
+          <t>0,34; 1,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,79</t>
+          <t>0,0; 1,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,59</t>
+          <t>1,69; 4,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0,1; 0,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,91</t>
+          <t>0,0; 2,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,83</t>
+          <t>1,71; 4,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,08</t>
+          <t>0,31; 1,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,26</t>
+          <t>0,05; 1,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 0,95</t>
+          <t>2,03; 4,31</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>0,55%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,35%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,42%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>3,49%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 11,68</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>1,8; 10,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,18; 2,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,25</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,93</t>
+          <t>1,52; 5,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,21</t>
+          <t>0,17; 1,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,88</t>
+          <t>0,13; 1,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,23</t>
+          <t>2,17; 5,95</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>4,98%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>12,03%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>7,62%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 0,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,51; 8,9</t>
+          <t>0,0; 1,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,54</t>
+          <t>2,59; 9,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,17; 1,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 23,8</t>
+          <t>0,0; 4,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,42</t>
+          <t>4,97; 23,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,6</t>
+          <t>0,09; 0,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,99</t>
+          <t>0,08; 1,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 0,64</t>
+          <t>4,48; 12,63</t>
         </is>
       </c>
     </row>
@@ -962,19 +963,19 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7,64%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
           <t>0,83%</t>
@@ -982,27 +983,27 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>6,94%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,12; 0,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 12,86</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 0,93</t>
+          <t>4,38; 13,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,79</t>
+          <t>0,36; 1,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,34; 11,53</t>
+          <t>0,3; 1,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,45</t>
+          <t>3,18; 11,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,17</t>
+          <t>0,33; 1,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 10,58</t>
+          <t>0,21; 1,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,34; 0,99</t>
+          <t>4,58; 10,55</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>3,38%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>9,59%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>7,34%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,29</t>
+          <t>0,52; 3,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,68</t>
+          <t>0,52; 4,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,71</t>
+          <t>1,17; 8,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,28; 1,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 17,94</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,65</t>
+          <t>4,78; 17,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,05</t>
+          <t>0,55; 1,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 13,3</t>
+          <t>0,4; 2,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,72</t>
+          <t>4,47; 12,48</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,26%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,4</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,48; 34,3</t>
+          <t>0,0; 18,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,66</t>
+          <t>7,17; 35,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,33</t>
+          <t>0,41; 2,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 11,38</t>
+          <t>0,0; 39,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,93</t>
+          <t>2,12; 11,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,54</t>
+          <t>0,38; 1,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 16,53</t>
+          <t>0,0; 22,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,47</t>
+          <t>5,15; 16,96</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,74%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>5,4%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,9</t>
+          <t>0,33; 0,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,34</t>
+          <t>0,29; 1,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,79</t>
+          <t>4,01; 7,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,12</t>
+          <t>0,49; 1,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 7,07</t>
+          <t>0,34; 1,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,98</t>
+          <t>4,25; 6,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,88</t>
+          <t>0,48; 0,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,56</t>
+          <t>0,4; 0,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,79</t>
+          <t>4,38; 6,56</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1206</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5929</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1637</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6430</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1677</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2555</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12360</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>488; 2693</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4577</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3475; 10250</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>144; 1424</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7433</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3594; 10167</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>888; 3229</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>265; 9202</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8441; 17907</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5420</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>4814</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10234</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 764</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3647</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2238; 13076</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>193; 2244</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3161</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2574; 8507</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>317; 2580</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>550; 5325</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6362; 17465</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4772</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6903</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11676</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 693</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1990</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2475; 8774</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>110; 1090</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3493</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2853; 13378</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>199; 1344</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>218; 3560</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6865; 19341</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>12375</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1469</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9889</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2149</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3248</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22263</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>197; 1503</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2460</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7093; 21135</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>636; 3313</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>955; 5918</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5053; 18201</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1146; 3950</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1341; 6763</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>14693; 33855</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1132</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3043</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2151</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3454</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10872</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>396; 2553</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>783; 7150</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>626; 4528</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>376; 2570</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2280</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4512; 16478</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1159; 3955</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1224; 7760</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6628; 18490</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6434</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3415</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1467</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9849</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 911</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2622; 13066</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>480; 2773</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4526</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1346; 7573</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>615; 2887</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4578</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>5140; 16939</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6668</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>36745</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>5477</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7032</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>40509</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9101</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>13699</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>77254</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2263; 5675</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3284; 11732</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>27214; 48591</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3659; 7902</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3614; 12600</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>32013; 52458</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6890; 12158</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8796; 21810</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>62686; 93902</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_OTRO-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Clase-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1448,7 +1448,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental (tasa de respuesta: 99,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_OTRO-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Clase-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,85</t>
+          <t>0,25; 1,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,98</t>
+          <t>1,64; 4,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,99</t>
+          <t>0,11; 0,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,84</t>
+          <t>1,79; 5,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,12</t>
+          <t>0,28; 0,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,31</t>
+          <t>2,07; 4,29</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 1,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,5</t>
+          <t>1,82; 11,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,06</t>
+          <t>0,12; 0,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,03</t>
+          <t>1,52; 5,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,36</t>
+          <t>0,11; 0,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,95</t>
+          <t>2,14; 6,14</t>
         </is>
       </c>
     </row>
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,14 +868,14 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0,96%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,63%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>12,03%</t>
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,43</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,16</t>
+          <t>2,41; 9,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,72</t>
+          <t>0,29; 2,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 23,31</t>
+          <t>5,0; 23,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,59</t>
+          <t>0,18; 1,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,48; 12,63</t>
+          <t>4,39; 12,19</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,14 +978,14 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>0,83%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>6,22%</t>
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,88</t>
+          <t>0,23; 1,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1026,12 +1026,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 13,06</t>
+          <t>4,67; 13,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,86</t>
+          <t>0,37; 1,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,45</t>
+          <t>3,3; 11,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,14</t>
+          <t>0,41; 1,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 10,55</t>
+          <t>4,6; 10,22</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,03%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,34</t>
+          <t>0,48; 2,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,43</t>
+          <t>1,16; 8,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,94</t>
+          <t>0,24; 1,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,78; 17,45</t>
+          <t>4,85; 17,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,89</t>
+          <t>0,44; 1,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,47; 12,48</t>
+          <t>4,61; 13,1</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 35,75</t>
+          <t>7,48; 36,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,35</t>
+          <t>0,27; 1,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,95</t>
+          <t>2,15; 13,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,77</t>
+          <t>0,32; 1,6</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 16,96</t>
+          <t>5,43; 18,25</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 0,83</t>
+          <t>0,38; 0,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,17</t>
+          <t>4,05; 7,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 1,06</t>
+          <t>0,43; 0,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1371,12 +1371,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,96</t>
+          <t>4,1; 6,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,85</t>
+          <t>0,46; 0,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,38; 6,56</t>
+          <t>4,48; 6,63</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>667</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>488; 2693</t>
+          <t>412; 2357</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3475; 10250</t>
+          <t>3376; 9950</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>144; 1424</t>
+          <t>183; 1676</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -1680,12 +1680,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3594; 10167</t>
+          <t>3765; 10924</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>888; 3229</t>
+          <t>915; 3112</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8441; 17907</t>
+          <t>8593; 17851</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>470</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>737</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 764</t>
+          <t>0; 1447</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2238; 13076</t>
+          <t>2267; 14243</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>193; 2244</t>
+          <t>143; 1126</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1843,12 +1843,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2574; 8507</t>
+          <t>2564; 8982</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>317; 2580</t>
+          <t>236; 1905</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6362; 17465</t>
+          <t>6277; 18026</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>372</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>594</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>967</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0; 693</t>
+          <t>0; 1307</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2475; 8774</t>
+          <t>2305; 8783</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>110; 1090</t>
+          <t>180; 1707</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -2006,12 +2006,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2853; 13378</t>
+          <t>2873; 13365</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>199; 1344</t>
+          <t>379; 2153</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6865; 19341</t>
+          <t>6719; 18675</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>1047</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2106,7 +2106,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1469</t>
+          <t>1551</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>2598</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>197; 1503</t>
+          <t>390; 2482</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -2154,12 +2154,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7093; 21135</t>
+          <t>7553; 21866</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>636; 3313</t>
+          <t>669; 3169</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5053; 18201</t>
+          <t>5249; 17646</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1146; 3950</t>
+          <t>1443; 4440</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14693; 33855</t>
+          <t>14742; 32796</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>926</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>846</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2151</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>396; 2553</t>
+          <t>351; 2117</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>626; 4528</t>
+          <t>625; 4447</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>376; 2570</t>
+          <t>300; 1868</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2332,12 +2332,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4512; 16478</t>
+          <t>4582; 16620</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1159; 3955</t>
+          <t>883; 3101</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6628; 18490</t>
+          <t>6826; 19403</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1227</t>
+          <t>804</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1467</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 911</t>
+          <t>0; 2194</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2622; 13066</t>
+          <t>2733; 13464</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>480; 2773</t>
+          <t>335; 1700</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1346; 7573</t>
+          <t>1365; 8405</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>615; 2887</t>
+          <t>573; 2842</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5140; 16939</t>
+          <t>5425; 18234</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2263; 5675</t>
+          <t>2713; 6652</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -2643,12 +2643,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>27214; 48591</t>
+          <t>27490; 49610</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3659; 7902</t>
+          <t>3339; 7085</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>32013; 52458</t>
+          <t>30904; 52269</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6890; 12158</t>
+          <t>6923; 12166</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>62686; 93902</t>
+          <t>64158; 94864</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/VUL_OTRO-Clase-trans_dic.xlsx
+++ b/data/trans_dic/VUL_OTRO-Clase-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,66%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,4%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2,97%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,45%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,64; 4,84</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,55</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,25; 1,45</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,64; 4,84</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1,79; 5,2</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,69</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,11; 0,99</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,69</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 5,2</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>2,07; 4,29</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 1,61</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,28; 0,94</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 1,61</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 4,29</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,3%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,35%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,38%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,85%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,35%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,47%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,82; 11,44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,87</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 11,44</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>1,52; 5,31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,37</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,12; 0,92</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,37</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 5,31</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,14; 6,14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 1,25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,11; 0,9</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 1,25</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,14; 6,14</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,24%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,33%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,98%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,96%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,63%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,03%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,45%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,42%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2,41; 9,17</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,1</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,85</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,41; 9,17</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>5,0; 23,28</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,22</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,29; 2,76</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,22</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 23,28</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>4,39; 12,19</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 1,35</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,18; 1,0</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 1,35</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 12,19</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,64%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>0,85%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,52%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>0,73%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4,67; 13,51</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,8</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>0,23; 1,46</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,8</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 13,51</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3,3; 11,1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 1,87</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,37; 1,73</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 1,87</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 11,1</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>4,6; 10,22</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 1,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>0,41; 1,26</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0,21; 1,08</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4,6; 10,22</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,25%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,59%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>0,68%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,26%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,59%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>0,89%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,16; 8,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,48; 2,87</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 4,74</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 8,28</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>4,85; 17,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>0,24; 1,49</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,47</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 17,6</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>4,61; 13,1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 2,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>0,44; 1,56</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 2,54</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 13,1</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,97%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,21%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,61%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,66%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,13%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>9,86%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>0,75%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>9,86%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7,48; 36,84</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 18,35</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>0,0; 3,98</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 18,35</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7,48; 36,84</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>2,15; 13,27</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 39,58</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>0,27; 1,39</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 39,58</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 13,27</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>5,43; 18,25</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 22,03</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>0,32; 1,6</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 22,03</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>5,43; 18,25</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,58%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,6%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,58%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,42%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,63%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,66%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,05; 7,32</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 1,03</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>0,38; 0,94</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 1,03</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4,05; 7,32</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>4,1; 6,94</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 1,17</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>0,43; 0,9</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 1,17</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>4,1; 6,94</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>4,48; 6,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 0,99</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>0,46; 0,82</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 0,99</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 6,63</t>
         </is>
       </c>
     </row>
@@ -1479,47 +1479,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5929</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1065</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>917</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5929</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>6430</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1637</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>667</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1637</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6430</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>12360</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2555</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1733</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2555</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>12360</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3376; 9950</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4577</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>412; 2357</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0; 4577</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3376; 9950</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3765; 10924</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7433</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>183; 1676</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0; 7433</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3765; 10924</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>8593; 17851</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>265; 9202</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>915; 3112</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>265; 9202</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8593; 17851</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5420</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>267</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1093</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5420</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4814</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>470</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>909</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4814</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>10234</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>737</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>10234</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>2267; 14243</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3647</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0; 1447</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3647</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2267; 14243</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2564; 8982</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3161</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>143; 1126</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3161</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2564; 8982</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>6277; 18026</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>550; 5325</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>236; 1905</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>550; 5325</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6277; 18026</t>
         </is>
       </c>
     </row>
@@ -1875,47 +1875,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>4772</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>372</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4772</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>6903</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>523</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>594</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>523</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6903</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>11676</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1118</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>967</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1118</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>11676</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2305; 8783</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1990</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0; 1307</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0; 1990</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2305; 8783</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>2873; 13365</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 3493</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>180; 1707</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0; 3493</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2873; 13365</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>6719; 18675</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>218; 3560</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>379; 2153</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>218; 3560</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>6719; 18675</t>
         </is>
       </c>
     </row>
@@ -2038,47 +2038,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>14</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
         </is>
       </c>
     </row>
@@ -2091,47 +2091,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>12375</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>1047</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>626</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12375</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>9889</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2622</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>1551</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2622</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9889</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>22263</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3248</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>2598</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3248</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>22263</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7553; 21866</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2460</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>390; 2482</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 2460</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>7553; 21866</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>5249; 17646</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>955; 5918</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>669; 3169</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>955; 5918</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5249; 17646</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>14742; 32796</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1341; 6763</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>1443; 4440</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1341; 6763</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>14742; 32796</t>
         </is>
       </c>
     </row>
@@ -2201,47 +2201,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
         </is>
       </c>
     </row>
@@ -2254,47 +2254,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1814</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3043</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>926</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>3043</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1814</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>9059</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>846</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>411</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>9059</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>10872</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3454</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>1771</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3454</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>10872</t>
         </is>
       </c>
     </row>
@@ -2307,47 +2307,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>625; 4447</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>783; 7150</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>351; 2117</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>783; 7150</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>625; 4447</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>4582; 16620</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2280</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>300; 1868</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>0; 2280</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>4582; 16620</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>6826; 19403</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1224; 7760</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>883; 3101</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>1224; 7760</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>6826; 19403</t>
         </is>
       </c>
     </row>
@@ -2364,47 +2364,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
@@ -2417,47 +2417,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>6434</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>535</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>394</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>6434</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>3415</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>804</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>3415</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>9849</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>1338</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>1323</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>9849</t>
         </is>
       </c>
     </row>
@@ -2470,47 +2470,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>2733; 13464</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1715</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>0; 2194</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>0; 1715</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2733; 13464</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>1365; 8405</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4526</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>335; 1700</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4526</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>1365; 8405</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>5425; 18234</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4578</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>573; 2842</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>0; 4578</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>5425; 18234</t>
         </is>
       </c>
     </row>
@@ -2527,47 +2527,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="H22" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>56</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>148</t>
         </is>
       </c>
     </row>
@@ -2580,47 +2580,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>36745</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>6668</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>4212</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>6668</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>36745</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>40509</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7032</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>4932</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>7032</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>40509</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>77254</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>13699</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>9144</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>13699</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>77254</t>
         </is>
       </c>
     </row>
@@ -2633,47 +2633,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>27490; 49610</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3284; 11732</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>2713; 6652</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3284; 11732</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>27490; 49610</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>30904; 52269</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3614; 12600</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>3339; 7085</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3614; 12600</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>30904; 52269</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>64158; 94864</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8796; 21810</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>6923; 12166</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>8796; 21810</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>64158; 94864</t>
         </is>
       </c>
     </row>
